--- a/rpg-is-not-scary/checklist.xlsx
+++ b/rpg-is-not-scary/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/rpg-is-not-scary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{457E58DA-D4E0-1F40-AB50-6B4EEB142FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1932490E-7EBF-9A43-84F8-286A05EB7FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{2FB32046-4841-3148-86E8-D36763BA3A88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>game_field.jpg</t>
+  </si>
+  <si>
+    <t>RPGこわい TRPGコラム集</t>
+  </si>
+  <si>
+    <t>RPGs Are Scary Column Collection</t>
+  </si>
+  <si>
+    <t>rpg-kowai.jpg</t>
   </si>
 </sst>
 </file>
@@ -432,16 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D4B944-E1A1-C145-84F1-B17F86347F15}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -504,6 +514,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
